--- a/test.xlsx
+++ b/test.xlsx
@@ -3874,12 +3874,28 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="42"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3894,8 +3910,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -3909,16 +3929,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
